--- a/Data_Wrangling_Python/examples/ex2.xlsx
+++ b/Data_Wrangling_Python/examples/ex2.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>message</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
   <si>
     <t>hello</t>
